--- a/阶段提交/4.测试阶段/测试用例.xlsx
+++ b/阶段提交/4.测试阶段/测试用例.xlsx
@@ -24,224 +24,349 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要的输入数据描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理流程（算法）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出结果描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际输出情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q-01-01</t>
-  </si>
-  <si>
     <t>游戏开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开始单机游戏</t>
-  </si>
-  <si>
-    <t>单人开始游戏</t>
-  </si>
-  <si>
-    <t>转换界面</t>
-  </si>
-  <si>
-    <t>进入游戏界面</t>
-  </si>
-  <si>
-    <t>Q-01-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开始联机游戏</t>
-  </si>
-  <si>
-    <t>联机开始游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入联机设置界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>判断网络是否连接
 转换界面</t>
-  </si>
-  <si>
-    <t>进入联机设置界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-01-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q-01-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设置好联机相关设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>判断连接是否成功
 转换界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进入联机游戏界面
 或者返回连接失败界面</t>
-  </si>
-  <si>
-    <t>Q-01-04</t>
-  </si>
-  <si>
-    <t>重新开始一局游戏</t>
-  </si>
-  <si>
-    <t>上一局游戏结束</t>
-  </si>
-  <si>
-    <t>进行新的一局游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q-02-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游戏进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游戏操控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中小人进行运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-02-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏操控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>声音控制小人行走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联机中语音控制障碍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>声音控制</t>
-  </si>
-  <si>
-    <t>游戏中小人进行运动</t>
-  </si>
-  <si>
-    <t>Q-02-02</t>
-  </si>
-  <si>
-    <t>联机中语音控制障碍</t>
-  </si>
-  <si>
-    <t>游戏中随机给对方设置障碍</t>
-  </si>
-  <si>
-    <t>Q-02-03</t>
-  </si>
-  <si>
-    <t>吃到药丸加速</t>
-  </si>
-  <si>
-    <t>碰到药丸的位置</t>
-  </si>
-  <si>
-    <t>速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q-03-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游戏结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游戏结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示排行榜及本次得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-03-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联机游戏结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单机游戏结束</t>
-  </si>
-  <si>
-    <t>记录得分</t>
-  </si>
-  <si>
-    <t>显示排行榜及本次得分</t>
-  </si>
-  <si>
-    <t>Q-03-02</t>
-  </si>
-  <si>
-    <t>联机游戏结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>记录两个用户得分
 进行比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>显示各自得分
 显示比较结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-01-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新开始一局游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一局游戏结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行新的一局游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q-03-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游戏退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>点击关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>关闭窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要的输入数据描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理流程（算法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出结果描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际输出情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-02-03</t>
+  </si>
+  <si>
+    <t>游戏进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏操控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃到药丸加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰到药丸的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单人开始游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联机开始游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q-04-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成绩查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成绩排行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-04-02</t>
+  </si>
+  <si>
+    <t>Q-04-03</t>
+  </si>
+  <si>
+    <t>成绩查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二局游戏开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩排行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏结束成绩查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游戏结束成绩记录</t>
-  </si>
-  <si>
-    <t>输入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示上局玩家成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>显示成绩数据</t>
-  </si>
-  <si>
-    <t>Q-04-02</t>
-  </si>
-  <si>
-    <t>成绩展示</t>
-  </si>
-  <si>
-    <t>第二局游戏开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示成绩数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>场景覆盖</t>
-  </si>
-  <si>
-    <t>显示上局玩家成绩</t>
-  </si>
-  <si>
-    <t>Q-04-03</t>
-  </si>
-  <si>
-    <t>游戏结束成绩查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中随机给
+对方设置障碍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -280,12 +405,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -294,15 +434,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +730,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -602,296 +745,332 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="E10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
